--- a/N5-S1-S3/KinhNgu.xlsx
+++ b/N5-S1-S3/KinhNgu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -32,25 +32,134 @@
     <t>nghĩa</t>
   </si>
   <si>
-    <t>なまえ</t>
-  </si>
-  <si>
-    <t>しめい</t>
-  </si>
-  <si>
-    <t>おなまえ</t>
-  </si>
-  <si>
-    <t>げんき</t>
-  </si>
-  <si>
-    <t>おげんき</t>
-  </si>
-  <si>
-    <t>くに</t>
-  </si>
-  <si>
-    <t>おくに</t>
+    <t>食べます</t>
+  </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <t>たべます</t>
+  </si>
+  <si>
+    <t>めしあがります</t>
+  </si>
+  <si>
+    <t>Ăｎ</t>
+  </si>
+  <si>
+    <t>飲みます</t>
+  </si>
+  <si>
+    <t>のみます</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ｎｇ</t>
+    </r>
+  </si>
+  <si>
+    <t>行きます</t>
+  </si>
+  <si>
+    <t>いきます</t>
+  </si>
+  <si>
+    <t>まいります</t>
+  </si>
+  <si>
+    <t>いらっしゃいます</t>
+  </si>
+  <si>
+    <t>đi</t>
+  </si>
+  <si>
+    <t>来ます</t>
+  </si>
+  <si>
+    <t>きます</t>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>いたします</t>
+  </si>
+  <si>
+    <t>します</t>
+  </si>
+  <si>
+    <t>なさいます</t>
+  </si>
+  <si>
+    <t>làm</t>
+  </si>
+  <si>
+    <t>もうします</t>
+  </si>
+  <si>
+    <t>いいます</t>
+  </si>
+  <si>
+    <t>おっしゃいます</t>
+  </si>
+  <si>
+    <t>nói</t>
+  </si>
+  <si>
+    <t>みます</t>
+  </si>
+  <si>
+    <t>ごらんになります</t>
+  </si>
+  <si>
+    <t>Nhìn</t>
+  </si>
+  <si>
+    <t>すき</t>
+  </si>
+  <si>
+    <t>おすき</t>
+  </si>
+  <si>
+    <t>Thích</t>
   </si>
 </sst>
 </file>
@@ -58,12 +167,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,54 +181,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Meiryo"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,21 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -154,41 +223,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +276,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -225,10 +330,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -240,55 +359,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,132 +539,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -449,17 +568,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +601,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,27 +636,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,178 +685,176 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,34 +1174,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="27.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="4.71428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="16" customHeight="1"/>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1057,198 +1211,250 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/N5-S1-S3/KinhNgu.xlsx
+++ b/N5-S1-S3/KinhNgu.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="DONG TU" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="DANH TU" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo"/>
+        <charset val="134"/>
+      </rPr>
       <t>U</t>
     </r>
     <r>
@@ -98,6 +104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo"/>
+        <charset val="134"/>
+      </rPr>
       <t>Đ</t>
     </r>
     <r>
@@ -144,6 +156,45 @@
     <t>nói</t>
   </si>
   <si>
+    <t>~ております</t>
+  </si>
+  <si>
+    <t>~ています</t>
+  </si>
+  <si>
+    <t>～ていらっしゃいます</t>
+  </si>
+  <si>
+    <t>知っている</t>
+  </si>
+  <si>
+    <t>ぞんじております</t>
+  </si>
+  <si>
+    <t>しっています</t>
+  </si>
+  <si>
+    <t>ごぞんじでいらっしゃいます</t>
+  </si>
+  <si>
+    <t>biết</t>
+  </si>
+  <si>
+    <t>知りません</t>
+  </si>
+  <si>
+    <t>ぞんじません</t>
+  </si>
+  <si>
+    <t>しりません</t>
+  </si>
+  <si>
+    <t>ごぞんじじゃありません</t>
+  </si>
+  <si>
+    <t>không biết</t>
+  </si>
+  <si>
     <t>みます</t>
   </si>
   <si>
@@ -160,6 +211,18 @@
   </si>
   <si>
     <t>Thích</t>
+  </si>
+  <si>
+    <t>～てください</t>
+  </si>
+  <si>
+    <t>～てくださいませんか</t>
+  </si>
+  <si>
+    <t>～ていただけませんか</t>
+  </si>
+  <si>
+    <t>hãy</t>
   </si>
 </sst>
 </file>
@@ -167,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -201,7 +264,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +299,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -224,127 +408,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -359,13 +422,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,174 +596,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -568,30 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,21 +651,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,17 +670,43 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,36 +728,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,134 +749,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,11 +885,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="5"/>
@@ -1185,8 +1216,8 @@
     <col min="1" max="1" width="4.71428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1428571428571" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1211,7 +1242,9 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1262,9 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1242,12 +1277,14 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1302,9 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1278,28 +1317,32 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>25</v>
@@ -1315,101 +1358,157 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1417,7 +1516,9 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1425,7 +1526,9 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1433,7 +1536,9 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1441,7 +1546,9 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1449,7 +1556,9 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>

--- a/N5-S1-S3/KinhNgu.xlsx
+++ b/N5-S1-S3/KinhNgu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7770"/>
+    <workbookView windowWidth="19935" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DONG TU" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -224,15 +224,164 @@
   <si>
     <t>hãy</t>
   </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>なまえ</t>
+  </si>
+  <si>
+    <t>しめい</t>
+  </si>
+  <si>
+    <t>おなまえ</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>元気</t>
+  </si>
+  <si>
+    <t>げんき</t>
+  </si>
+  <si>
+    <t>おげんき</t>
+  </si>
+  <si>
+    <t>Khỏe mạnh</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>くに</t>
+  </si>
+  <si>
+    <t>おくに</t>
+  </si>
+  <si>
+    <t>Quốc gia</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>おたく</t>
+  </si>
+  <si>
+    <t>ｎｈà</t>
+  </si>
+  <si>
+    <t>そです</t>
+  </si>
+  <si>
+    <t>さようでございます</t>
+  </si>
+  <si>
+    <t>vâng</t>
+  </si>
+  <si>
+    <t>たんじょうび</t>
+  </si>
+  <si>
+    <t>おたんじょうび</t>
+  </si>
+  <si>
+    <t>Sinh nhật</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>ゆうしじん</t>
+  </si>
+  <si>
+    <t>おともだち</t>
+  </si>
+  <si>
+    <t>Bạn bè</t>
+  </si>
+  <si>
+    <t>もの</t>
+  </si>
+  <si>
+    <t>人(ひと)</t>
+  </si>
+  <si>
+    <t>方(かた)</t>
+  </si>
+  <si>
+    <t>Ｎｇười</t>
+  </si>
+  <si>
+    <t>誰</t>
+  </si>
+  <si>
+    <t>だれ</t>
+  </si>
+  <si>
+    <t>となた</t>
+  </si>
+  <si>
+    <t>趣味</t>
+  </si>
+  <si>
+    <t>しゅみ</t>
+  </si>
+  <si>
+    <t>ごしゅみ</t>
+  </si>
+  <si>
+    <t>thích</t>
+  </si>
+  <si>
+    <t>知り合い</t>
+  </si>
+  <si>
+    <t>しりあい</t>
+  </si>
+  <si>
+    <t>ちじん</t>
+  </si>
+  <si>
+    <t>おしりあい</t>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i quen</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -278,14 +427,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,8 +448,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +480,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,91 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -422,79 +571,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,103 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,17 +780,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,28 +813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,32 +846,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,130 +898,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -885,7 +1034,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="5"/>
@@ -1452,13 +1603,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1480,28 +1631,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
@@ -1575,14 +1726,363 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="4.71428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
